--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value729.xlsx
@@ -354,7 +354,7 @@
         <v>1.823490793283708</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.849090678367558</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value729.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value729.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164390049090884</v>
+        <v>0.9794444441795349</v>
       </c>
       <c r="B1">
-        <v>1.823490793283708</v>
+        <v>1.411014437675476</v>
       </c>
       <c r="C1">
+        <v>2.55925989151001</v>
+      </c>
+      <c r="D1">
         <v>15</v>
       </c>
-      <c r="D1">
-        <v>1.849090678367558</v>
-      </c>
       <c r="E1">
-        <v>1.062044481042919</v>
+        <v>1.591899991035461</v>
       </c>
     </row>
   </sheetData>
